--- a/example_data/excel_example_PMC7065070.xlsx
+++ b/example_data/excel_example_PMC7065070.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/baseline/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B29D82-CB9D-43A9-B635-B39ECF6B6559}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="11_F25DC773A252ABDACC1048ED099E4FC05ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E76CF74-3186-4A8B-B410-4913C85071EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMCID = PMC7065070" sheetId="1" r:id="rId1"/>
+    <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Mean</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>history</t>
+  </si>
+  <si>
+    <t>This is an example with correlated data from males and females &amp; married/single that should be removed automatically by the algorithm</t>
   </si>
 </sst>
 </file>
@@ -478,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -710,4 +714,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62FA29D-5794-4008-872E-2B67CE3CE56E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>